--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,77 +665,81 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -781,8 +785,11 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,8 +835,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,8 +1005,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1035,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,8 +1124,9 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1145,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1192,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1258,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1305,8 +1342,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1352,8 +1392,11 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1399,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1446,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,8 +1542,11 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1540,8 +1592,11 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1587,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1822,8 +1892,11 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1869,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,8 +1992,11 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1963,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,8 +2139,9 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2092,7 +2179,7 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
         <v>200</v>
@@ -2100,8 +2187,11 @@
       <c r="Q41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,8 +2237,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2194,8 +2287,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2241,8 +2337,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2288,8 +2387,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2327,7 +2429,7 @@
         <v>100</v>
       </c>
       <c r="O46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P46" s="3">
         <v>200</v>
@@ -2335,8 +2437,11 @@
       <c r="Q46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2382,8 +2487,11 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2429,8 +2537,11 @@
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2476,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,8 +2687,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2617,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,8 +2787,11 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2703,7 +2829,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P54" s="3">
         <v>200</v>
@@ -2711,8 +2837,11 @@
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,8 +2879,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2796,8 +2927,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2843,8 +2977,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3027,11 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2937,8 +3077,11 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2984,8 +3127,11 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3031,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,8 +3327,11 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3219,8 +3377,11 @@
       <c r="Q66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3468,13 +3642,16 @@
         <v>-400</v>
       </c>
       <c r="P72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Q72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,8 +3797,11 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3656,13 +3842,16 @@
         <v>100</v>
       </c>
       <c r="P76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,60 +3897,66 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3807,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3873,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,8 +4322,11 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4155,8 +4372,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,8 +4394,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4221,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4360,10 +4590,13 @@
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,8 +4812,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4616,8 +4862,11 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4663,8 +4912,11 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4708,6 +4960,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,8 +934,10 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1042,14 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1098,14 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1175,8 +1229,14 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1225,8 +1285,14 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,8 +1363,14 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1345,8 +1419,14 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1445,8 +1531,14 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1595,8 +1699,14 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1645,8 +1755,14 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,8 +2035,14 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1945,8 +2091,14 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2045,63 +2203,75 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2182,16 +2356,22 @@
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2420,14 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,8 +2532,14 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2390,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2432,16 +2636,22 @@
         <v>100</v>
       </c>
       <c r="P46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>200</v>
+      </c>
+      <c r="T46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2540,8 +2756,14 @@
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2812,14 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2980,14 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +3036,14 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2832,16 +3084,22 @@
         <v>100</v>
       </c>
       <c r="P54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3140,10 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2930,8 +3192,14 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,8 +3248,14 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3030,8 +3304,14 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3080,8 +3360,14 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,8 +3416,14 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,8 +3640,14 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3380,8 +3696,14 @@
       <c r="R66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,16 +3942,22 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="E72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="F72" s="3">
         <v>-400</v>
@@ -3645,13 +3993,19 @@
         <v>-400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="R72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S72" s="3">
         <v>-300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,16 +4166,22 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F76" s="3">
         <v>100</v>
@@ -3845,13 +4217,19 @@
         <v>100</v>
       </c>
       <c r="Q76" s="3">
+        <v>100</v>
+      </c>
+      <c r="R76" s="3">
+        <v>100</v>
+      </c>
+      <c r="S76" s="3">
         <v>200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4005,8 +4395,14 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4375,8 +4809,14 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4445,8 +4887,14 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4593,10 +5053,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4865,8 +5357,14 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5467,12 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1064,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1123,11 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,8 +1204,9 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1261,11 @@
       <c r="T17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1291,8 +1320,11 @@
       <c r="T18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1369,8 +1402,11 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1425,8 +1461,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1537,8 +1579,11 @@
       <c r="T23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1705,8 +1756,11 @@
       <c r="T26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1761,8 +1815,11 @@
       <c r="T27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2041,8 +2110,11 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2097,8 +2169,11 @@
       <c r="T33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2209,69 +2287,75 @@
       <c r="T35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2362,7 +2448,7 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
         <v>200</v>
@@ -2370,8 +2456,11 @@
       <c r="T41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,8 +2515,11 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2482,8 +2574,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2594,8 +2692,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2642,7 +2743,7 @@
         <v>100</v>
       </c>
       <c r="R46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S46" s="3">
         <v>200</v>
@@ -2650,8 +2751,11 @@
       <c r="T46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2762,8 +2869,11 @@
       <c r="T48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2818,8 +2928,11 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3105,11 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,8 +3164,11 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3090,7 +3215,7 @@
         <v>100</v>
       </c>
       <c r="R54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
@@ -3098,8 +3223,11 @@
       <c r="T54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,8 +3271,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3198,8 +3328,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,8 +3387,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3366,8 +3505,11 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3422,8 +3564,11 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3702,8 +3859,11 @@
       <c r="T66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,8 +4118,11 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3960,7 +4133,7 @@
         <v>-500</v>
       </c>
       <c r="F72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="G72" s="3">
         <v>-400</v>
@@ -3999,13 +4172,16 @@
         <v>-400</v>
       </c>
       <c r="S72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="T72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,8 +4354,11 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4184,7 +4369,7 @@
         <v>0</v>
       </c>
       <c r="F76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G76" s="3">
         <v>100</v>
@@ -4223,13 +4408,16 @@
         <v>100</v>
       </c>
       <c r="S76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4401,8 +4595,11 @@
       <c r="T81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4815,8 +5031,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4893,8 +5113,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5059,10 +5288,13 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5363,8 +5608,11 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5473,6 +5724,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1126,8 +1146,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,8 +1231,9 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1264,8 +1291,11 @@
       <c r="U17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1323,8 +1353,11 @@
       <c r="U18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1405,8 +1439,11 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1464,8 +1501,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,8 +1563,11 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1582,8 +1625,11 @@
       <c r="U23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,8 +1749,11 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1759,8 +1811,11 @@
       <c r="U26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1818,8 +1873,11 @@
       <c r="U27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2113,8 +2183,11 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2172,8 +2245,11 @@
       <c r="U33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,8 +2307,11 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2290,72 +2369,78 @@
       <c r="U35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2451,7 +2538,7 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
         <v>200</v>
@@ -2459,8 +2546,11 @@
       <c r="U41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,8 +2608,11 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2577,8 +2670,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,8 +2732,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2695,8 +2794,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2746,7 +2848,7 @@
         <v>100</v>
       </c>
       <c r="S46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T46" s="3">
         <v>200</v>
@@ -2754,8 +2856,11 @@
       <c r="U46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2872,8 +2980,11 @@
       <c r="U48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2931,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3108,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,8 +3290,11 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3218,7 +3344,7 @@
         <v>100</v>
       </c>
       <c r="S54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T54" s="3">
         <v>200</v>
@@ -3226,8 +3352,11 @@
       <c r="U54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,8 +3402,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3331,8 +3462,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3390,8 +3524,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3449,8 +3586,11 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3508,8 +3648,11 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3567,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,8 +3958,11 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3862,8 +4020,11 @@
       <c r="U66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4136,7 +4310,7 @@
         <v>-500</v>
       </c>
       <c r="G72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-400</v>
@@ -4175,13 +4349,16 @@
         <v>-400</v>
       </c>
       <c r="T72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="U72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,8 +4540,11 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4372,7 +4558,7 @@
         <v>0</v>
       </c>
       <c r="G76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H76" s="3">
         <v>100</v>
@@ -4411,13 +4597,16 @@
         <v>100</v>
       </c>
       <c r="T76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,72 +4664,78 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4598,8 +4793,11 @@
       <c r="U81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5034,8 +5251,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5116,8 +5337,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5291,10 +5521,13 @@
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,8 +5795,11 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5611,8 +5857,11 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5727,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,8 +989,10 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1121,14 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1149,8 +1189,14 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,8 +1284,10 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1294,8 +1348,14 @@
       <c r="V17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W17" s="3">
+        <v>0</v>
+      </c>
+      <c r="X17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1356,8 +1416,14 @@
       <c r="V18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,8 +1510,14 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1504,8 +1578,14 @@
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1646,14 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1628,8 +1714,14 @@
       <c r="V23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,8 +1850,14 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1814,8 +1918,14 @@
       <c r="V26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1876,8 +1986,14 @@
       <c r="V27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,8 +2326,14 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2248,8 +2394,14 @@
       <c r="V33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,8 +2462,14 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2372,75 +2530,87 @@
       <c r="V35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,13 +2659,15 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E41" s="3">
         <v>100</v>
@@ -2541,16 +2715,22 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,8 +2791,14 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,13 +2995,19 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
@@ -2851,16 +3055,22 @@
         <v>100</v>
       </c>
       <c r="T46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>200</v>
+      </c>
+      <c r="X46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,8 +3131,14 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2983,8 +3199,14 @@
       <c r="V48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3267,14 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3471,14 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,13 +3539,19 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3347,16 +3599,22 @@
         <v>100</v>
       </c>
       <c r="T54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>200</v>
+      </c>
+      <c r="X54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,8 +3663,10 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3465,8 +3727,14 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3527,8 +3795,14 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3589,8 +3863,14 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3651,8 +3931,14 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,8 +3999,14 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,8 +4271,14 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4023,8 +4339,14 @@
       <c r="V66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,8 +4637,14 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4313,10 +4661,10 @@
         <v>-500</v>
       </c>
       <c r="H72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="I72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="J72" s="3">
         <v>-400</v>
@@ -4352,13 +4700,19 @@
         <v>-400</v>
       </c>
       <c r="U72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="V72" s="3">
+        <v>-400</v>
+      </c>
+      <c r="W72" s="3">
         <v>-300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,8 +4909,14 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4561,10 +4933,10 @@
         <v>0</v>
       </c>
       <c r="H76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J76" s="3">
         <v>100</v>
@@ -4600,13 +4972,19 @@
         <v>100</v>
       </c>
       <c r="U76" s="3">
+        <v>100</v>
+      </c>
+      <c r="V76" s="3">
+        <v>100</v>
+      </c>
+      <c r="W76" s="3">
         <v>200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,75 +5045,87 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4796,8 +5186,14 @@
       <c r="V81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,8 +5620,14 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5254,8 +5688,14 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5718,10 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5340,8 +5782,14 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5524,10 +5984,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,8 +6284,14 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5860,8 +6352,14 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,8 +6420,14 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5982,6 +6486,12 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,8 +1311,9 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1354,8 +1380,11 @@
       <c r="X17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1422,8 +1451,11 @@
       <c r="X18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1516,8 +1549,11 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1584,8 +1620,11 @@
       <c r="X21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,8 +1691,11 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1720,8 +1762,11 @@
       <c r="X23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,8 +1904,11 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1924,8 +1975,11 @@
       <c r="X26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1992,8 +2046,11 @@
       <c r="X27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2332,8 +2401,11 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2400,8 +2472,11 @@
       <c r="X33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,8 +2543,11 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2536,81 +2614,87 @@
       <c r="X35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,8 +2746,9 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2670,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
@@ -2721,7 +2807,7 @@
         <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>200</v>
@@ -2729,8 +2815,11 @@
       <c r="X41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2797,8 +2886,11 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2865,8 +2957,11 @@
       <c r="X43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,8 +3099,11 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3010,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
@@ -3061,7 +3162,7 @@
         <v>100</v>
       </c>
       <c r="V46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W46" s="3">
         <v>200</v>
@@ -3069,8 +3170,11 @@
       <c r="X46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,8 +3241,11 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3205,8 +3312,11 @@
       <c r="X48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,8 +3667,11 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3554,7 +3679,7 @@
         <v>0</v>
       </c>
       <c r="E54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
@@ -3605,7 +3730,7 @@
         <v>100</v>
       </c>
       <c r="V54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W54" s="3">
         <v>200</v>
@@ -3613,8 +3738,11 @@
       <c r="X54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,8 +3794,9 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3801,8 +3934,11 @@
       <c r="X58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3869,8 +4005,11 @@
       <c r="X59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3937,8 +4076,11 @@
       <c r="X60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4005,8 +4147,11 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,8 +4431,11 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4345,8 +4502,11 @@
       <c r="X66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,8 +4813,11 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4667,7 +4840,7 @@
         <v>-500</v>
       </c>
       <c r="J72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="K72" s="3">
         <v>-400</v>
@@ -4706,13 +4879,16 @@
         <v>-400</v>
       </c>
       <c r="W72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="X72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,8 +5097,11 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -4939,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="J76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K76" s="3">
         <v>100</v>
@@ -4978,13 +5163,16 @@
         <v>100</v>
       </c>
       <c r="W76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,81 +5239,87 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5192,8 +5386,11 @@
       <c r="X81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,8 +5839,11 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5694,8 +5910,11 @@
       <c r="X89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5990,10 +6219,13 @@
         <v>0</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6358,8 +6603,11 @@
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,8 +6674,11 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6492,6 +6743,9 @@
         <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ITDN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>ITDN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,111 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +839,11 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +913,11 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +987,11 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,8 +1163,11 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1217,8 +1237,11 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,8 +1338,9 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1410,11 @@
       <c r="Y17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1454,8 +1484,11 @@
       <c r="Y18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1552,8 +1586,11 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1623,8 +1660,11 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,8 +1734,11 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1765,8 +1808,11 @@
       <c r="Y23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,8 +1956,11 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1978,8 +2030,11 @@
       <c r="Y26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -2049,8 +2104,11 @@
       <c r="Y27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2404,8 +2474,11 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2475,8 +2548,11 @@
       <c r="Y33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,8 +2622,11 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2617,84 +2696,90 @@
       <c r="Y35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,8 +2833,9 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2759,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>100</v>
@@ -2810,7 +2897,7 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
         <v>200</v>
@@ -2818,8 +2905,11 @@
       <c r="Y41" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,8 +2979,11 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2960,8 +3053,11 @@
       <c r="Y43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,8 +3127,11 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3102,8 +3201,11 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3114,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
         <v>100</v>
@@ -3165,7 +3267,7 @@
         <v>100</v>
       </c>
       <c r="W46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X46" s="3">
         <v>200</v>
@@ -3173,8 +3275,11 @@
       <c r="Y46" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z46" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3315,8 +3423,11 @@
       <c r="Y48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3386,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3645,11 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3599,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,8 +3793,11 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3682,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G54" s="3">
         <v>100</v>
@@ -3733,7 +3859,7 @@
         <v>100</v>
       </c>
       <c r="W54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X54" s="3">
         <v>200</v>
@@ -3741,8 +3867,11 @@
       <c r="Y54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3866,8 +3997,11 @@
       <c r="Y57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3937,8 +4071,11 @@
       <c r="Y58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4008,8 +4145,11 @@
       <c r="Y59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4079,8 +4219,11 @@
       <c r="Y60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4150,8 +4293,11 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4367,11 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,8 +4589,11 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4505,8 +4663,11 @@
       <c r="Y66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4843,7 +5017,7 @@
         <v>-500</v>
       </c>
       <c r="K72" s="3">
-        <v>-400</v>
+        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-400</v>
@@ -4882,13 +5056,16 @@
         <v>-400</v>
       </c>
       <c r="X72" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="Y72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5127,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="K76" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L76" s="3">
         <v>100</v>
@@ -5166,13 +5352,16 @@
         <v>100</v>
       </c>
       <c r="X76" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y76" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z76" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,84 +5431,90 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -5389,8 +5584,11 @@
       <c r="Y81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5487,8 +5686,11 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,8 +6056,11 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -5913,8 +6130,11 @@
       <c r="Y89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6160,9 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6011,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6380,11 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6222,10 +6452,13 @@
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6606,8 +6852,11 @@
       <c r="Y100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,8 +6926,11 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -6746,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
     </row>
